--- a/doc/second sprint/SmartCity_Stories.xlsx
+++ b/doc/second sprint/SmartCity_Stories.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra\Dropbox\IFB299\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandra\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10776" windowHeight="4008"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8856" windowHeight="3456"/>
   </bookViews>
   <sheets>
     <sheet name="general_report" sheetId="2" r:id="rId1"/>
@@ -19,79 +19,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="119">
-  <si>
-    <r>
-      <t xml:space="preserve">Displaying </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> issues at </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>21/Oct/17 8:42 PM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="116">
   <si>
     <t>Key</t>
   </si>
   <si>
-    <t>Summary</t>
-  </si>
-  <si>
-    <t>Issue Type</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
+    <t>Created</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
-    <t>IFB299 045</t>
+    <t>Sprint</t>
   </si>
   <si>
     <t>FOURTYFIVE-46</t>
   </si>
   <si>
     <t>Verify website</t>
-  </si>
-  <si>
-    <t>Story</t>
   </si>
   <si>
     <t>Must Have</t>
@@ -99,7 +47,7 @@
   <si>
     <t xml:space="preserve">As a user, I want to use a website that works seamlessly with no issues or errors. 
 Acceptance Criteria: 
-- All user stories function as planned on Google Chrome. 
+- All user stories function as planned as defined by their written test on a Google Chrome web browser. 
 Tasks: 
 -Verify “Create User Account” user story is complete (10min) 
 -Verify “Login To Account” user story is complete (10min) 
@@ -137,8 +85,8 @@
   <si>
     <t>As a user I want to be able to see the contact details for the website to contact the people running SmartCity in case I find errors, want to provide feedback, or have general queries about the website. 
 Acceptance Criteria: 
-- Phone Number displayed 
-- Email displayed 
+- SmartCity phone Number displayed 
+- SmartCity email displayed 
 Tasks: 
 - Create new .html page which displays contact email and phone number for SmartCity (30min) 
 - Update “Contact Us” button from search results html page to direct to new contact us html page (10min)</t>
@@ -154,6 +102,7 @@
 Acceptance Criteria: 
 - All pages have the same base font 
 - All pages have the same base colour scheme 
+- All pages have a banner image at the top of the web page 
 Tasks: 
 - Edit CSS file to incorporate common theme items for all web pages (3 hr) 
 - Edit all html pages to incorporate the CSS file classes (3hr) 
@@ -166,13 +115,20 @@
     <t>Unit Tests</t>
   </si>
   <si>
-    <t>User Story: 
+    <t xml:space="preserve">User Story: 
 - As a user I would like a website that works efficiently without bugs or errors. 
 Acceptance Criteria: 
-- Tests are written to ensure all pages are working correctly. 
-- Tests are written to ensure all sections using information from the database display the correct data. 
-- Tests are written to ensure all forms submit when the correct information is entered and fail when incorrect information is entered. 
-- Tests are written to ensure that data entered or changed via forms have been correctly entered or changed in the database.</t>
+- Tests pass as they are intended as defined by comments or their test title 
+- Tests are written to ensure all sections using information from the database display the correct data 
+- Tests are written to ensure all forms submit when the correct information is entered and fail when incorrect information is entered 
+- Tests are written to ensure that data entered or changed via forms have been correctly entered or changed in the database 
+Task: 
+- for all views in views.py, create tests to see if status code returned is accurate 
+- for all views in view.py, create tests for general functionality of each view 
+- for all models, create tests to identify if item is instantiated accurately 
+- for all forms, create tests to ensure all information passed through is valid 
+- for all forms, create tests to ensure all information when passed through incorrectly returns an error 
+</t>
   </si>
   <si>
     <t>FOURTYFIVE-42</t>
@@ -184,7 +140,10 @@
     <t>Could Have</t>
   </si>
   <si>
-    <t>As a user, I'd like to know the weather of the city on the website such that I plan my journey carefully 
+    <t>As a user, I'd like to know about how the weather is for the day so that I plan my journey to get there accordingly 
+Acceptance Criteria: 
+- Individual Item Page should request a remote weather API service using the coordinates of each place 
+- Individual Item Page should display the information about the current weather of the place via an image/icon as well as text 
 Tasks: 
 Add a script to connect to a weather API service to retrieve data (1.5hr) 
 Add an html element that displays the weather information to users (1.5hr)</t>
@@ -209,6 +168,10 @@
   </si>
   <si>
     <t xml:space="preserve">As a user I want to see the location on a map to help me visualise where to go and where the location is. 
+Acceptance Criteria: 
+- Individual item page should make API call to the google API service. 
+- Individual item page should display a google map that is zoomed in on the place with a marker of where the place is on the map 
+- Users should be able to zoom in and out of the map. 
 Tasks: 
 - modify individual item page html to include google maps frame (20min) 
 - Integrate Google Map API to individual item page(2hr) 
@@ -222,6 +185,10 @@
   </si>
   <si>
     <t>As a user I want a page which displays all data inputs from one specific category (restaurants, hotels, malls, parks, museums, libraries, colleges, industries, or zoos). 
+Acceptance criteria: 
+- When viewing an individual category, only items from that category are displayed 
+- Items are displayed in a list format 
+- All items displayed have click-through links 
 Tasks: 
 - Create tests (30 mins) 
 - Create html for pages (1 hr) 
@@ -244,7 +211,6 @@
 - A list of places with the name containing the keyword will be displayed after the user has pressed search. 
 - Search results will display the following: 
 Name of destination 
-User ratings if user ratings have been left for the destination 
 Address of destination 
 - The search results will be displayed in order of date added to the database. 
 - Clicking on the result text will take the user to the individual item's page via a click through link. 
@@ -317,14 +283,14 @@
     <t xml:space="preserve">User Story: 
 - As a user, I want to be able to remove my account so that I remove my personal details from the website when I decide not to use it anymore. 
 Acceptance Criteria: 
-- A button labelled "Delete Account" will be displayed on the users individual account information page. 
-- When pressed, the button will prompt an "Are you sure?" pop up, which the user will be able to chose by pressing a button either labelled "Yes" or "No". 
-- When the "Yes" button is pressed, the users stored information such as their name, email, and password are to be removed from the web systems SQL database. If they user provided any other information such as, but not limited to, their address or phone number, these will also be removed. 
-- If the "No" button is selected, the pop up simply disappears and the user will just return back to the user account page they were originally on. 
+- A button labelled "Delete" will be displayed on the users individual account information page when the user clicks the "edit" button. 
+- When the delete button is pressed, the page will show confirmation page displaying "Account deleted" 
+- The information about the user in the database such as their name, email, and password will be removed. 
+- The user will be redirected to the welcome page in 3 seconds. 
 Tasks: 
 - Add button to delete account. (10min) 
-- Create pop up with options. (10min) 
 - Write code in django to remove a user from the database. (30min) 
+- Display confirmation message and redirect user to the welcome page (20min) 
 </t>
   </si>
   <si>
@@ -372,9 +338,9 @@
     <t>User Story: 
 - As a user, I want to see reviews for each place so that I can make my decision based on other’s experiences 
 Acceptance Criteria: 
-- When a user is on an individual destination/place web page, they will be able to see a rating (out of 5) and typed review which other users have provided for the destination/place based on their experiences there. 
-- If no reviews have been provided by users, a text box stating “No reviews provided” will be displayed. 
-- If no rating have been provided by users, a text stating "no ratings provide" will be displayed.</t>
+- Individual destination/place web page should show a list of reviews. 
+- Each review should show the username, comment, and rating. 
+- If no reviews have been provided by users, the reviews list will be empty.</t>
   </si>
   <si>
     <t>FOURTYFIVE-26</t>
@@ -401,13 +367,9 @@
     <t xml:space="preserve">User Story: 
 - As a user I want to submit reviews to places so that I can share my experience with other users. 
 Acceptance Criteria: 
-- On an individual place/destination page a button labelled "Write Review" will be displayed on the page. 
-- When the "Write Review" button is clicked, a pop up window will load with the following information on it: 
-1) A text box where the user is able to type a text review. 
-2) A drop down menu with numbers ranging from 0 - 5 which users may select to leave a rating to go with their review 
-3) A button labelled "Submit review" which users will click once they are ready to submit their review and rating. 
-- Once the "Submit Review" button is pressed, the pop up will disappear and their review will appear on the webpage once the user reloads the individual destination page. 
-- On the pop up window will also be a "Close Window" button incase the user does not want to leave a review anymore. 
+- On an individual item page, a comment input field, user rating radio buttons (ranging from 1 to 5) and a submit buttons should be visible. 
+- When the submit button is clicked, a user review with the rating will be submitted, updating the list of reviews. 
+-User will be able to submit only one review. 
 </t>
   </si>
   <si>
@@ -421,7 +383,7 @@
 - As a user I want to be able to view detailed information about a place so that I can get more information 
 Acceptance Criteria: 
 - Clicking on each item (place) will redirect me to an individual item page 
-- A web page will display information about a selected place including google map of the place, the place name, opening hours, location, contact numbers, email address, and description of the place. 
+- A web page will display information about a selected place including google map of the place, the place name, contact numbers, email address, departments (if it is a college), and industry type (if it is an industry). 
 Task (Sprint 1): 
 - Create unit tests for acceptance criteria 
 - Write code to display destination's information including name, address, opening hours, contact number, and description of the place 
@@ -439,14 +401,13 @@
     <t>User Story: 
 - As user I want to view my profile and be able to modify my account detail so that I can keep it up to date. 
 Assessment Criteria: 
-- The navigation menu will display a link labelled "User Account". 
-- Clicking on the "User Account" link will redirect me to my account information page. 
-- The page displays a form prefilled with my personal information (First Name, Last Name, State, City and Summary.) including the details I registered with and additional information that I added later. 
-- The form is set as read only. 
-- The page displays a "Edit Account" button. 
+- The navigation menu will display a link labelled "Account Settings". 
+- Clicking on the "Account Settimgs" link will redirect me to my account information page. 
+- The page displays all information about my user profile. 
 - The account information page displays a button labelled "Edit Account". 
-- Clicking the "Edit Account" button will enable the form to be edited. 
-- Clicking on the "Submit" button displays a popup prompt for me to confirm whether I want to submit the new details with separate "Yes" or "No" buttons to accept or decline the changes. 
+- Clicking the "Edit Account" button will redirect me to a page for editing my account information. 
+- The edit account page displays a form pre-filled with my personal information; including the details I registered with and additional information that I added later. 
+- Clicking on the "Submit" button returns me to the account information page so that I can view the changes I have made. 
 Tasks: 
 - Create a .html page with a form for user account and edit button. (1.5hr) 
 - Add link to the navigation menu to the account page. (10mins) 
@@ -482,12 +443,14 @@
 Assessment Criteria: 
 - A navigation menu will be anchored at the top of every webpage along with the search bar. 
 - When I'm logged in, the navigation bar will have following links: 
-2. "Home" link to redirect me to the welcome page. 
-3. "User Account" link to redirect me to my account information page 
+1. "Home" link to redirect me to the welcome page when I click on the sites logo. 
+2. "Admin Settings" link to redirect me to the administration control panel when I am logged in as an admin. 
+3. "Account Settings" link to redirect me to my account information page 
 4. "Saved Pages" link to redirect me to the save pages page. 
-5. "Log Out" link to log me out of the website. 
+5. "Contact Us" link to redirect me to the contact details page. 
+6. "Log Out" link to log me out of the website. 
 - When I'm logged out, the navigation bar will only show the logo that will redirect the user to the welcome page 
-- When logged in as an admin, the navigation bar will also show a drop-down menu labelled "Admin Controls". The drop down menu will contain "admin creation" and "Add new place" links. Admin creation will link to admin creation page and add new place will link to administrator control panel. 
+- When I'm logged in, the navigation bar will contain a search form for me to search places matching my query. 
 Tasks (Sprint 1): 
 - Create unit tests for acceptance criteria (1hr) 
 - Create drop down menu of click through links to other important pages on the website (0.5hr) 
@@ -520,12 +483,10 @@
     <t>User Story: 
 - As a user, I want pagination for my search result so that I can easily use the search feature. 
 Acceptance Criteria: 
-- If the number of items in the search result exceeds a certain amount (20) there should be displayed a pagination that allows me to read through the results in multiple segments. 
-- The pagination should show numbers starting from 1 to the number of available segments. 
-- Clicking on a number will display results of that segment. 
-- There will be buttons labelled "Prev" and "Next" which will appear next to the number so that I may click to go onto the next or previous segment of search results. 
+- If the number of items in the search result exceeds a certain amount (10) there should be displayed a pagination that allows me to read through the results in multiple segments. 
+- There will be buttons labelled "Prev" and "Next" which will appear next to the number so that I may click to go onto the next or previous segment of search results while seeing which page I am currently on. 
 Tasks: 
-- Add server side code to enable pagination (10mins)</t>
+- Add server side code to enable pagination (30mins)</t>
   </si>
   <si>
     <t>FOURTYFIVE-17</t>
@@ -548,18 +509,16 @@
   </si>
   <si>
     <t xml:space="preserve">User Story: 
-- As a user, I want to be given the option of sorting my search results either by user ratings, category or by destinations closest to my current location instead of the default alphabetical ordering so that I can look through the results list to find what I want easily. 
+- As a user, I want to be given the option of sorting my search results by alphabetical order instead of the default date added ordering so that I can look through the results list to find what I want easily. 
 Assessment Criteria: 
 - The search result page displays a drop-down menu with the following sorting options: 
 *Alphabetical 
 *Date 
-*Category 
 - Choosing "alphabetical" will sort the result alphabetically 
-- Choosing date will sort the result such that newest will be displayed first 
-- When the user selects one of these options and press the search button, only results from that category will be displayed in the search result. 
+- Choosing date will sort the result such that the places added most recently to the database will be displayed first 
 Tasks: 
-- Add drop down menu to search result page. (30min) 
-- Write django code to sort results from database with the specified criteria. (2hr) 
+- Add radio button menu to search result page. (30min) 
+- Write django and javascript code to sort results from database with the specified criteria. (2hr) 
 </t>
   </si>
   <si>
@@ -575,24 +534,9 @@
 - The database will be divided into "State" categories such as "Queensland", "New South Wales", "Victoria", "South Australia, "ACT", "Tasmania", "Northern Territory", and "Western Australia". 
 - Initially the database will only have "Queensland" as a present "State" option. 
 - There will be a "Add State" option for admins to add a new "State" into the database, other than "Queensland" 
-- In the control panel, "Add New City" and "Add New Category" links should be displayed to allow admins to add new cities and categories into the system. 
-- Clicking on "Add New Category" displays a list of places to choose from to add to the category including "Colleges", "Libraries", "Industries", "Hotels", "Parks", "Zoos", "Museums", "Restaurants", and "Malls", with a submit link next to them. Once a category is selected, clicking on the submit button adds the new category into the database for a city. 
-- When an admin adds a new category to a city, a new page is displayed where the admin will be able to type in a new destination and its relevant details such as (but not limited to) "Address", "Contact Number", "Opening Hours", "Other Information" in separate text boxes. 
-- Clicking on "Add New City" displays a text box to add the city with a submit link located next to it. Clicking on the submit button adds the new city into the database. 
-- Once other cities are added, on the anchored top search bar will be a drop-down menu with the different states available to search through, as well as the states cities which have been added so that users can target search areas. 
-- Once other cities are added, users can edit their default city (which will automatically be set up as Queensland) for their account so their recommendations are suited to their current area/location. 
-- When users sign up after the addition of more states, a new check box will be added for each of the states available so they can set their default state preference immediately. 
 Tasks: 
-- Add fields and databases to SQL. (30min) 
-- Implement option for admins to add a state to the database. (1hr) 
-- Implement option for admins to add a city to the database. (1hr) 
-- Implement option for admins to add a category to the database. (1hr) 
-- Add a .html page for admins to create a new destination. (2hr) 
-- Add forms, input fields and submit button for adding the location to the database. (2hr) 
-- Implement option for the user to search by states and cities on the anchored search bar. (1hr) 
-- Add option for user to change their default city. (20min) 
-- Write code to update the default city in the database. (10min) 
-- Add options for the user to choose a default city with the registration form. (10min)</t>
+- Implement 'postcode' field to sign up form for users to input their website in order to quickly identify their default state (1hr) 
+- Implement model for admins to add a state to the database. (30min)</t>
   </si>
   <si>
     <t>FOURTYFIVE-12</t>
@@ -606,7 +550,11 @@
 Assessment Criteria: 
 - If the user presses the button labelled "Page saved" the button will revert to the button labelled "Save page". This will delete the URL from the user's SQL database. 
 - There will be button labelled "Remove" next to the places in the "Saved places" menu that will remove a page from the user's "Saved places". 
-- A popup prompt will be given to the user to confirm that the user wants to remove the place/page from their "Saved places". The popup will have a button to accept or decline the action, displayed as "Yes" or "No" buttons. If the user declines, the page will not be removed. If the user accepts, the page will be removed.</t>
+- A popup prompt will be given to the user to confirm that the user wants to remove the place/page from their "Saved places". The popup will have a button to accept or decline the action, displayed as "Yes" or "No" buttons. If the user declines, the page will not be removed. If the user accepts, the page will be removed. 
+Tasks: 
+- Write function to detect whether the user has saved the page and change the button accordingly. 
+- Add django functionality to remove the place from the user's saved places. 
+- Create a popup to confirm that the user wants to remove the place from their saved places.</t>
   </si>
   <si>
     <t>FOURTYFIVE-11</t>
@@ -647,7 +595,8 @@
 - Administrator control panel will the Django admin control panel to allow admins to add, modify or delete data. 
 - Modifying data in the Django admin control panel will update the corresponding values in the database. 
 - If the place with the same name and location exist in the database, an error will be displayed and the item will not be added to the database. 
-- The admin page will display database tables for categories, cities, places, states and users. 
+- The admin page will display database tables for categories, cities, places, states, reviews, saved places, industries, departments and users. 
+- All data entered by users or admins can be viewed via the admin page. 
 - Each table will contain a form with fields for the admin to fill out. 
 Tasks: 
 1. Modify the Django admin control panel page to display the required database tables and fields 
@@ -672,10 +621,10 @@
 - An error will be displayed and the request will be denied if the admin registration request is made by a non-admin user. 
 - Admins will be able to edit user info from the control panel. 
 Tasks: 
-1. Write code to add additional user information tables to the Django admin control panel. 
-2. Add model data to ensure correct information is input 
-3. Write Tests (1) 
-4. Verify story is complete (1)</t>
+1. Write code to add additional user information tables to the Django admin control panel. (1hr) 
+2. Add model data to ensure correct information is input (0.5hr) 
+3. Write Tests (1hr) 
+4. Verify story is complete (1hr)</t>
   </si>
   <si>
     <t>FOURTYFIVE-5</t>
@@ -688,12 +637,12 @@
 - As a user, I want to stay logged in for the duration of my usage of the service so that I don’t have to login every time I’m redirected to a new page or reloading a page. 
 Acceptance: 
 - Upon logging in to the website, my session is stored. 
-- The header navigation bar will display my first name as long as I am logged in so that I know that I'm logged in. 
+- The header navigation bar will display my username as long as I am logged in so that I know that I'm logged in. 
 - Clicking on the "log out" link on the navigation bar will log me out and end the session. 
 - Leaving the application without logging out will still keep the session alive. 
 Tasks (Sprint 1): 
-- Write code to configure and manage user’s session 
-- Write code to add the user's name to the header navigation bar while the session is active 
+- Write code to configure and manage user’s session (1hr) 
+- Write code to add the user's name to the header navigation bar while the session is active (1.5hr) 
 </t>
   </si>
   <si>
@@ -709,15 +658,13 @@
 Acceptance: 
 - The welcome page displays a form with a "Login" button, email input field and password input field. 
 - An error message will be displayed if I login with incorrect login details. 
-- If I press the "Login" button with the form filled in with valid email and password, a confirmation message will be displayed indicating that I have successfully logged in. 
-- Upon successful login, the page will refresh and show confirmation message 
-- The Login page will display a tick-box for ‘Remember me’, so that I will not have to fill in my details in next time I want to login. 
+- Upon successful login, the page will refresh and display the welcome page for a logged in user and recommended information. 
 Tasks: 
-- Create login form for users to specify their details. 
-- Write client-side code to handle input validation and request response from the server 
-- Write client-side code to handle request from the login form and establish user session 
-- Write unit tests 
-- Perform unit tests 
+- Create login form for users to specify their details. (0.5hr) 
+- Write client-side code to handle input validation and request response from the server (2.5hr) 
+- Write client-side code to handle request from the login form and establish user session (2.5hr) 
+- Write unit tests (1hr) 
+- Perform unit tests (1hr) 
 </t>
   </si>
   <si>
@@ -730,21 +677,23 @@
     <t xml:space="preserve">User Story: 
 - As a student, I want to create a student account so that the service remembers my information and allows me to use the service with student oriented recommendations. 
 Acceptance: 
-- The welcome page displays a form with a "submit" button, radio buttons, and input fields (first name, last name, email and password). The radio buttons allow the user to select their user account type and will have the options of: Student, businessman, tourist. 
+- The welcome page displays a form with a "submit" button, drop-down menu, and input fields (username,first name, last name, email and password). The drop-down menu will allow the user to select their user account type and will have the options of: Student, businessman, tourist. 
 - The form will also have optional fields: 
 phone number 
 residential address 
+postcode 
 - If I submit the form with invalid input, an error message will be displayed under each invalid field to indicate that I need to correct it before submitting. 
-Name is considered invalid if it contains numeric characters or non-alphanumeric symbols. 
-Email is considered invalid if it does not have the correct email format 
-(email format must contain an "@" symbol as well as a "." symbol) Password is considered invalid if its length is less than 8 characters or more than 14 characters. 
+Username is considered invalid if no username has been entered or the username already exists in the database. 
+Email is considered invalid if it does not have the correct email format(email format must contain an "@" symbol as well as a "." symbol) 
+Password is considered invalid if no password has been entered. 
+Postcode is considered invalid if no number has been entered. 
 - Clicking on the "submit" button will register my details to the database 
 Tasks: 
-- Write unit tests for acceptance criteria 
-- Create user sign up form 
-- Create client-side code for validation and request response from the server 
-- Write client-side code to handle request from the signup form and add new users to the database 
-- Perform unit tests 
+- Write unit tests for acceptance criteria (1hr) 
+- Create user sign up form (0.5hr) 
+- Create client-side code for validation and request response from the server (1hr) 
+- Write client-side code to handle request from the signup form and add new users to the database (1.5hr) 
+- Perform unit tests (1hr) 
 </t>
   </si>
   <si>
@@ -771,6 +720,9 @@
   </si>
   <si>
     <t>Story Points</t>
+  </si>
+  <si>
+    <t>Title/Summary</t>
   </si>
 </sst>
 </file>
@@ -946,7 +898,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1128,18 +1080,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF205081"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1270,19 +1216,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1291,28 +1224,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1361,54 +1272,26 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="19" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1470,72 +1353,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1" descr="SEF Jira">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70FD8B98-B652-489E-9696-DDAACA418885}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:link="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="541020" cy="289560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1835,924 +1652,901 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="28.33203125" style="8" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>2</v>
+      </c>
+      <c r="G2" s="7">
+        <v>43027.742361111108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="262.2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="F3" s="5">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="G3" s="7">
+        <v>43022.884722222225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="289.8" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43020.881249999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>43016.701388888891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="317.39999999999998" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>43015.834027777775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="151.80000000000001" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="7">
+        <v>43015.825694444444</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="289.8" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7">
+        <v>43013.51666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="289.8" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>43009.612500000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>42970.444444444445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>3</v>
+      </c>
+      <c r="G11" s="7">
+        <v>42963.665277777778</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="207" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>3</v>
+      </c>
+      <c r="G12" s="7">
+        <v>42956.481944444444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="303.60000000000002" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>3</v>
+      </c>
+      <c r="G13" s="7">
+        <v>42956.479166666664</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>2</v>
+      </c>
+      <c r="G14" s="7">
+        <v>42956.477083333331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="372.6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F15" s="5">
+        <v>3</v>
+      </c>
+      <c r="G15" s="7">
+        <v>42956.477083333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="303.60000000000002" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4</v>
+      </c>
+      <c r="F16" s="5">
+        <v>3</v>
+      </c>
+      <c r="G16" s="7">
+        <v>42956.475694444445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="193.2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>42956.474999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="303.60000000000002" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="5">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
+        <v>3</v>
+      </c>
+      <c r="G18" s="7">
+        <v>42956.474999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="248.4" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="7">
+        <v>42956.474305555559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="400.2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>42956.474305555559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="7">
+        <v>42956.473611111112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="289.8" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="5">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="F22" s="5">
+        <v>3</v>
+      </c>
+      <c r="G22" s="7">
+        <v>42956.473611111112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="D23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="7">
+        <v>42956.467361111114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="358.8" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="5">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5">
+        <v>3</v>
+      </c>
+      <c r="G24" s="7">
+        <v>42956.466666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="317.39999999999998" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="193.2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="D25" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>42956.465277777781</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="179.4" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="5">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3</v>
+      </c>
+      <c r="G26" s="7">
+        <v>42956.465277777781</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2</v>
+      </c>
+      <c r="G27" s="7">
+        <v>42956.462500000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>42956.458333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29" s="5">
+        <v>2</v>
+      </c>
+      <c r="G29" s="7">
+        <v>42956.457638888889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+      <c r="F30" s="5">
+        <v>2</v>
+      </c>
+      <c r="G30" s="7">
+        <v>42956.457638888889</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="14">
+      <c r="D31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="5">
+        <v>2</v>
+      </c>
+      <c r="F31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="193.2" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="G31" s="7">
+        <v>42956.455555555556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="193.2" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="D32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>42956.45416666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="386.4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="14">
+      <c r="D33" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>42956.453472222223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="124.2" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="D34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="5">
+        <v>2</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>42956.452777777777</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="14">
+      <c r="D35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="5">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>1</v>
+      </c>
+      <c r="G35" s="7">
+        <v>42956.451388888891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="124.2" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="110.4" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="124.2" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="400.2" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="14">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="188.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="358.8" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="14">
+      <c r="F36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="234.6" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="198.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="179.4" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="198.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="276" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="289.8" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="175.8" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G25" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="248.4" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G26" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="276" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G27" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="124.2" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="386.4" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="234.6" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G31" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="372.6" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="386.4" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G33" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="276" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G34" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="262.2" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
+      <c r="G36" s="7">
+        <v>42956.430555555555</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A39:G39"/>
+  <mergeCells count="1">
+    <mergeCell ref="A37:F37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-46"/>
-    <hyperlink ref="B5" r:id="rId2" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-45"/>
-    <hyperlink ref="B6" r:id="rId3" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-44"/>
-    <hyperlink ref="B7" r:id="rId4" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-43"/>
-    <hyperlink ref="B8" r:id="rId5" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-42"/>
-    <hyperlink ref="B9" r:id="rId6" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-41"/>
-    <hyperlink ref="B10" r:id="rId7" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-40"/>
-    <hyperlink ref="B11" r:id="rId8" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-39"/>
-    <hyperlink ref="B12" r:id="rId9" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-37"/>
-    <hyperlink ref="B13" r:id="rId10" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-36"/>
-    <hyperlink ref="B14" r:id="rId11" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-34"/>
-    <hyperlink ref="B15" r:id="rId12" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-33"/>
-    <hyperlink ref="B16" r:id="rId13" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-32"/>
-    <hyperlink ref="B17" r:id="rId14" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-30"/>
-    <hyperlink ref="B18" r:id="rId15" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-28"/>
-    <hyperlink ref="B19" r:id="rId16" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-27"/>
-    <hyperlink ref="B20" r:id="rId17" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-26"/>
-    <hyperlink ref="B21" r:id="rId18" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-25"/>
-    <hyperlink ref="B22" r:id="rId19" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-24"/>
-    <hyperlink ref="B23" r:id="rId20" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-22"/>
-    <hyperlink ref="B24" r:id="rId21" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-21"/>
-    <hyperlink ref="B25" r:id="rId22" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-20"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-19"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-18"/>
-    <hyperlink ref="B28" r:id="rId25" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-17"/>
-    <hyperlink ref="B29" r:id="rId26" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-16"/>
-    <hyperlink ref="B30" r:id="rId27" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-13"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-12"/>
-    <hyperlink ref="B32" r:id="rId29" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-11"/>
-    <hyperlink ref="B33" r:id="rId30" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-8"/>
-    <hyperlink ref="B34" r:id="rId31" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-7"/>
-    <hyperlink ref="B35" r:id="rId32" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-5"/>
-    <hyperlink ref="B36" r:id="rId33" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-4"/>
-    <hyperlink ref="B37" r:id="rId34" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-3"/>
-    <hyperlink ref="B38" r:id="rId35" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-1"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-46"/>
+    <hyperlink ref="A3" r:id="rId2" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-45"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-44"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-43"/>
+    <hyperlink ref="A6" r:id="rId5" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-42"/>
+    <hyperlink ref="A7" r:id="rId6" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-41"/>
+    <hyperlink ref="A8" r:id="rId7" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-40"/>
+    <hyperlink ref="A9" r:id="rId8" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-39"/>
+    <hyperlink ref="A10" r:id="rId9" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-37"/>
+    <hyperlink ref="A11" r:id="rId10" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-36"/>
+    <hyperlink ref="A12" r:id="rId11" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-34"/>
+    <hyperlink ref="A13" r:id="rId12" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-33"/>
+    <hyperlink ref="A14" r:id="rId13" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-32"/>
+    <hyperlink ref="A15" r:id="rId14" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-30"/>
+    <hyperlink ref="A16" r:id="rId15" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-28"/>
+    <hyperlink ref="A17" r:id="rId16" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-27"/>
+    <hyperlink ref="A18" r:id="rId17" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-26"/>
+    <hyperlink ref="A19" r:id="rId18" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-25"/>
+    <hyperlink ref="A20" r:id="rId19" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-24"/>
+    <hyperlink ref="A21" r:id="rId20" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-22"/>
+    <hyperlink ref="A22" r:id="rId21" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-21"/>
+    <hyperlink ref="A23" r:id="rId22" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-20"/>
+    <hyperlink ref="A24" r:id="rId23" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-19"/>
+    <hyperlink ref="A25" r:id="rId24" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-18"/>
+    <hyperlink ref="A26" r:id="rId25" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-17"/>
+    <hyperlink ref="A27" r:id="rId26" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-16"/>
+    <hyperlink ref="A28" r:id="rId27" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-13"/>
+    <hyperlink ref="A29" r:id="rId28" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-12"/>
+    <hyperlink ref="A30" r:id="rId29" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-11"/>
+    <hyperlink ref="A31" r:id="rId30" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-8"/>
+    <hyperlink ref="A32" r:id="rId31" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-7"/>
+    <hyperlink ref="A33" r:id="rId32" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-5"/>
+    <hyperlink ref="A34" r:id="rId33" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-4"/>
+    <hyperlink ref="A35" r:id="rId34" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-3"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://sefteach01.qut.edu.au/jira/browse/FOURTYFIVE-1"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.5" header="0.5" footer="0.25"/>
@@ -2760,6 +2554,5 @@
   <headerFooter>
     <oddFooter>&amp;R&amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId36"/>
 </worksheet>
 </file>
--- a/doc/second sprint/SmartCity_Stories.xlsx
+++ b/doc/second sprint/SmartCity_Stories.xlsx
@@ -627,24 +627,6 @@
 - Perform unit tests/acceptance tests </t>
   </si>
   <si>
-    <t>User Story: 
-- As user I want to view my profile and be able to modify my account detail so that I can keep it up to date. 
-Assessment Criteria: 
-- The navigation menu will display a link labelled "Account Settings". 
-- Clicking on the "Account Settings" link will redirect me to my account information page. 
-- The page displays all information about my user profile. 
-- The account information page displays a button labelled "Edit Information" 
-- Clicking the "Edit Information" button will redirect me to a page for editing my account information. 
-- The edit account page displays a form pre-filled with my personal information; including the details I registered with and additional information that I added later. 
-- Clicking on the "update" button returns me to the account information page so that I can view the changes I have made. 
-Tasks: 
-- Create a .html page with a form for user account and edit button. (1.5hr) 
-- Add link to the navigation menu to the account page. (10mins) 
-- Write code in django to populate the account page with the current user's info from the SQL database. (1hr) 
-- Implement code in django to update the user's info in the SQL database. (2hr) 
-- Create and implement tests (1hr)</t>
-  </si>
-  <si>
     <t xml:space="preserve">User Story: 
 - As a user I want to have access to an anchored menu in every page so that I can navigate myself to key services whenever I want. 
 Assessment Criteria: 
@@ -689,29 +671,6 @@
   </si>
   <si>
     <t xml:space="preserve">User Story: 
-- As a user, I want to create an account on SmartCity so that I am able to use its services and functionality. 
-Acceptance: 
-- The welcome page displays a form with a "submit" button, drop-down menu, and input fields (username,first name, last name, email, postcode and password). The drop-down menu will allow the user to select their user account type and will have the options of: Student, businessman, tourist. 
-- The form will also have optional fields: 
-phone number 
-residential address 
-postcode 
-- If I submit the form with invalid input, an error message will be displayed under each invalid field to indicate that I need to correct it before submitting. 
-Username is considered invalid if no username has been entered or the username already exists in the database. 
-Email is considered invalid if it does not have the correct email format(email format must contain an "@" symbol as well as a "." symbol) 
-Password is considered invalid if no password has been entered. 
-Postcode is considered invalid if no number has been entered. 
-- Clicking on the "submit" button will register my details to the database 
-Tasks: 
-- Write unit tests for acceptance criteria
-- Create user sign up form  
-- Create client-side code for validation and request response from the server 
-- Write client-side code to handle request from the signup form and add new users to the database 
-- Perform unit tests 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Story: 
 - As a user I want to be able to login to the website so that I can begin to use its service and access its data. 
 Acceptance: 
 - The welcome page displays a form with a "Login" button, username input field and password input field. 
@@ -724,6 +683,43 @@
 - Write unit tests 
 - Perform unit tests 
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Story: 
+- As a user, I want to create an account on SmartCity so that I am able to use its services and functionality. 
+Acceptance: 
+- The welcome page displays a form with a "submit" button, drop-down menu, and input fields (username, email, first name, last name, password, address, phone number, and postcode) The drop-down menu will allow the user to select their user account type and will have the options of: student, businessman, tourist. 
+- If I submit the form with invalid input, an error message will be displayed under each invalid field to indicate that I need to correct it before submitting. 
+-Username is considered invalid if no username has been entered or the username already exists in the database. 
+-Email is considered invalid if it does not have the correct email format(email format must contain an "@" symbol as well as a "." symbol) 
+-Password is considered invalid if no password has been entered. 
+Postcode is considered invalid if no number has been entered. 
+- Clicking on the "submit" button will register my details to the database 
+Tasks: 
+- Write unit tests for acceptance criteria
+- Create user sign up form  
+- Create client-side code for validation and request response from the server 
+- Write client-side code to handle request from the signup form and add new users to the database 
+- Perform unit tests 
+</t>
+  </si>
+  <si>
+    <t>User Story: 
+- As user I want to view my profile and be able to modify my account detail so that I can keep it up to date. 
+Assessment Criteria: 
+- The navigation menu will display a link labelled "Account Settings". 
+- Clicking on the "Account Settings" link will redirect me to my account information page. 
+- The page displays all information about my user profile. 
+- The account information page displays a button labelled "Edit Information" 
+- Clicking the "Edit Information" button will redirect me to a page for editing my account information. 
+- The edit account page displays a form pre-filled with my personal information; including the details I registered with and additional information that I added later. 
+- Clicking on the "update" button returns me to the account information page so that I can view the changes I have made. 
+Tasks: 
+- Create a .html page with a form for user account and edit button. 
+- Add link to the navigation menu to the account page.  
+- Write code in django to populate the account page with the current user's info from the SQL database. 
+- Implement code in django to update the user's info in the SQL database. 
+- Create and implement tests</t>
   </si>
 </sst>
 </file>
@@ -1663,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.6" x14ac:dyDescent="0.2"/>
@@ -1748,7 +1744,7 @@
         <v>43022.884722222225</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="289.8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="207" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1771,7 +1767,7 @@
         <v>43020.881249999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="372.6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1794,7 +1790,7 @@
         <v>43016.701388888891</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="303.60000000000002" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="220.8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1817,7 +1813,7 @@
         <v>43015.834027777775</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="165.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="138" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1840,7 +1836,7 @@
         <v>43015.825694444444</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="289.8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="234.6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1863,7 +1859,7 @@
         <v>43013.51666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="289.8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="207" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1909,7 +1905,7 @@
         <v>42970.444444444445</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="400.2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -1955,7 +1951,7 @@
         <v>42956.481944444444</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="303.60000000000002" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="193.2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>34</v>
       </c>
@@ -1978,7 +1974,7 @@
         <v>42956.479166666664</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="386.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="289.8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -2001,7 +1997,7 @@
         <v>42956.477083333331</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="372.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="234.6" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -2150,7 +2146,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E21" s="4">
         <v>3</v>
@@ -2162,7 +2158,7 @@
         <v>42956.473611111112</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="289.8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="179.4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>57</v>
       </c>
@@ -2196,7 +2192,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -2208,7 +2204,7 @@
         <v>42956.467361111114</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="358.8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="248.4" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>62</v>
       </c>
@@ -2242,7 +2238,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2254,7 +2250,7 @@
         <v>42956.465277777781</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="179.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="124.2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>67</v>
       </c>
@@ -2288,7 +2284,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -2300,7 +2296,7 @@
         <v>42956.462500000001</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="276" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>72</v>
       </c>
@@ -2323,7 +2319,7 @@
         <v>42956.458333333336</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="289.8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="207" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>74</v>
       </c>
@@ -2346,7 +2342,7 @@
         <v>42956.457638888889</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="372.6" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>76</v>
       </c>
@@ -2392,7 +2388,7 @@
         <v>42956.455555555556</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="276" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>80</v>
       </c>
@@ -2415,7 +2411,7 @@
         <v>42956.45416666667</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="386.4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="262.2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>82</v>
       </c>
@@ -2449,7 +2445,7 @@
         <v>7</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -2484,7 +2480,7 @@
         <v>42956.451388888891</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="400.2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>88</v>
       </c>
